--- a/medicine/Psychotrope/Valencia_(DO)/Valencia_(DO).xlsx
+++ b/medicine/Psychotrope/Valencia_(DO)/Valencia_(DO).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Zone vinicole d'appellation d'origine contrôlée (DO) depuis 1957, dont le siège est Valence (Espagne).
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le vignoble est cultivé dans la région de Valence depuis le Néolithique. Les vins de Sagonte apparaissent déjà dans les œuvres de Juvénal et Martial du IIe siècle. Cet excellent vin fut renommé pendant le Moyen Âge.
 Les voies de communication sont excellentes. Valence, port maritime sur la mer Méditerranée a exporté ses vins depuis l'Antiquité, en fait une grande partie de la production de cette DO est destinée aux marchés extérieurs, c'est pourquoi ses vins rouges, blancs, rosés, moelleux, doux, mousseux... ne sont pas encore très connus en Espagne.
@@ -548,7 +562,9 @@
           <t>L'environnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sol, présente une bonne perméabilité, qui varie selon l'altitude, du type fluvial dans la zone plus proche de la côte, argileux à moyenne altitude et calcaire et sableux dans les zones les plus élevées. Le climat, méditerranéen, à tendance continentale surtout à l'intérieur subit l'influence des vents forts et des averses précisément à cet endroit. La pluviométrie moyenne est 400 mm. avec des zones considérées comme arides ou semi-arides et les températures peuvent varier de 38 °C en été à -5 °C en hiver.
 </t>
@@ -579,7 +595,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rouges : Monastrell, Grenache, Syrah, Pinot poir, Cabernet Sauvignon, Merlot, Bobal.
 Blancs : Merseguera, Pedro Ximénez, Malvoisie, Moscatel, Macabeu, Chardonnay, Forcayat, Planta fina de Pedralba, Planta nova, Sauvignon blanc, Sémillon, Tortosí, Verdil</t>
@@ -610,7 +628,9 @@
           <t>Millésimes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1980 Bonne
@@ -667,7 +687,9 @@
           <t>Caves</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Agrícola La Realense Coop. V.
 Anecoop Soc. Coop.
@@ -677,7 +699,7 @@
 Bodega J. Belda
 Bodega Joaquina Sanchez Soler
 Bodega Viñas Del Portillo, S.L.
-Bodega Sánchez Zahonero[1]</t>
+Bodega Sánchez Zahonero</t>
         </is>
       </c>
     </row>
